--- a/test/response_quality_evaluation_general.xlsx
+++ b/test/response_quality_evaluation_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyuyang/Desktop/CMU MSCF Courses/Mini 5/ML_Capstone/QACapstone/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F965561-0730-564C-8CEA-27D04981A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1F686A-8FD6-C84B-ABAD-E5DC2E2B93F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,12 @@
   <si>
     <t>MID-YEAR OUTLOOK 2024
 OUTLOOK 2024  KEY THEMES  Macroeconomy:  A Longer Path to Normalization    Geopolitics and Elections:  Roadmaps for Resilience  Tailwinds and Headwinds:   Investing in Megatrends
-This financial promotion is provided by Goldman Sachs Asset Management B.V.</t>
-  </si>
-  <si>
-    <t>Based on the provided context, the key takeaway of Goldman Sachs' mid-year outlook for 2024 is that the economic realities are taking shape, including higher-for-longer interest rates, elevated geopolitical risk, and megatrends rapidly transforming industries. The report highlights the need for a dynamic investment approach in the months ahead as the macroeconomic cycle adjusts, and emphasizes the importance of understanding the nuances of these forces and how they interconnect to potentially capitalize on the opportunities they create.</t>
+This financial promotion is provided by Goldman Sachs Asset Management B.V.
+query_resposne_sim:0.8554397494584152</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, the key takeaway of Goldman's mid-year outlook 2024 is that the firm believes that new economic realities are taking shape, including higher-for-longer interest rates, elevated geopolitical risk, and megatrends rapidly transforming industries. They also highlight the need for a dynamic investment approach in the months ahead as the macroeconomic cycle adjusts, and note that understanding the nuances of these forces and how they interconnect can enable companies and investors to potentially capitalize on the opportunities they create.
+query_resposne_sim:0.8871544712301357</t>
   </si>
   <si>
     <t>llamaparse</t>
@@ -51,10 +53,12 @@
 # Three Key Questions
 # 1
 Are investment theses predicated on the continuation of existing policies?
-Our View: While prudent investments are never predicated on a single factor, many investors are contemplating how potential policy removals, additions, or alterations can change underwriting assumptions. This can potentially be easier to navigate in the US, where many policies related to supply chains and energy resources have a bottom-up nature that target specific markets, as opposed to in Europe where top-down regulations can fundamentally change the landscape.</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman's mid-year outlook 2024 is that the macroeconomy is on a longer path to normalization, with considerable but still incomplete disinflation progress lengthening the path to interest rate normalization. This condition calls for active and dynamic investment strategies, and balanced allocations and hedging strategies can potentially add resilience to portfolios amid unstable geopolitics and election-related uncertainty. Additionally, areas of potential opportunity include core fixed income, equity exposures beyond the largest mega-cap names, and private market strategies focused on driving value creation at portfolio companies.</t>
+Our View: While prudent investments are never predicated on a single factor, many investors are contemplating how potential policy removals, additions, or alterations can change underwriting assumptions. This can potentially be easier to navigate in the US, where many policies related to supply chains and energy resources have a bottom-up nature that target specific markets, as opposed to in Europe where top-down regulations can fundamentally change the landscape.
+query_resposne_sim:0.8619108861396854</t>
+  </si>
+  <si>
+    <t>The key takeaway of Goldman's mid-year outlook 2024 is that there is a longer path to interest rate normalization due to considerable but still incomplete disinflation progress, and active and dynamic investment strategies are needed to navigate the unstable geopolitics and election-related uncertainty.
+query_resposne_sim:0.8440195730301284</t>
   </si>
   <si>
     <t>pdfplumber</t>
@@ -75,16 +79,18 @@
 section 761G of the Corporations Act 2001 (Cth) and to clients who
 The website links provided are for your convenience only and are not an either fall within any or all of the categories of investors set out in
 endorsement or recommendation by Goldman Sachs Asset Management section 3(2) or sub-section 5(2CC) of the Securities Act 1978, fall
-of any of these websites or the products or services offered. Goldman within the definition of a wholesale client for the purposes of the</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman Sachs' mid-year outlook 2024 is that the macroeconomy is on a longer path to normalization, with geopolitical and election-related risks continuing to pose challenges for investors. Despite these headwinds, there are still tailwinds from megatrends such as technology and demographic shifts that can provide opportunities for growth.</t>
+of any of these websites or the products or services offered. Goldman within the definition of a wholesale client for the purposes of the
+query_resposne_sim:0.8610623792198911</t>
+  </si>
+  <si>
+    <t>The key takeaway of Goldman's mid-year outlook 2024 is that the macroeconomy is on a longer path to normalization, with geopolitical and electoral factors playing a significant role in shaping the future of global markets.
+query_resposne_sim:0.8364696363599392</t>
   </si>
   <si>
     <t>pypdfloader</t>
   </si>
   <si>
-    <t xml:space="preserve">MID-YEAR  
+    <t>MID-YEAR  
 OUTLOOK 2024
 KEY THEMESAsset Management 
 This financial promotion is provided by Goldman Sachs Asset Management B.V.Tailwinds and Headwinds: 
@@ -196,23 +202,24 @@
 A LONGER PATH TO NORMALIZATION
 Goldman Sachs Asset Management
 Asset Management Outlook 2024     |    3
-</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman Sachs Asset Management's mid-year outlook 2024 is that they expect a longer path to normalization for the global economy, with tailwinds and headwinds in different regions. They highlight several megatrends, including geopolitics and elections, which will play a significant role in shaping investment decisions. Additionally, they provide insights into various asset classes, such as equities, fixed income, and currencies, and offer recommendations for investors to position their portfolios for resilience in the current environment.</t>
+query_resposne_sim:0.8167522121348265</t>
+  </si>
+  <si>
+    <t>The key takeaway of Goldman's mid-year outlook 2024 is that investing in megatrends, such as technology and sustainability, is a crucial aspect of resilience in today's uncertain geopolitical landscape. The report highlights the potential for these trends to drive long-term growth and notes that Goldman Sachs Asset Management is positioning its investment strategies to take advantage of these opportunities. Additionally, the report acknowledges that there are challenges ahead, including a potentially longer path to normalization in the macroeconomy, but emphasizes the importance of staying informed and adaptable in order to navigate these challenges successfully.
+query_resposne_sim:0.8438650122700699</t>
   </si>
   <si>
     <t>prompt</t>
   </si>
   <si>
-    <t>What is the key takeaway of Goldman’s mid-year outlook 2024</t>
+    <t>'What is the key takeaway of Goldman’s mid-year outlook 2024'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +236,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,24 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,84 +583,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="169" style="1" customWidth="1"/>
-    <col min="3" max="3" width="192.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="183" style="2" customWidth="1"/>
+    <col min="3" max="3" width="224.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="340" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="339" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="380" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
